--- a/notebooks/ecommerce_behaviour/dataset/df_ecom_values_encoded_v2.xlsx
+++ b/notebooks/ecommerce_behaviour/dataset/df_ecom_values_encoded_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/notebooks/ecommerce_behaviour/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF62572-F590-C145-A072-CF65CBD4A52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A9F112-F4EA-3F49-A7AF-697F2EAD9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category_code_lvl_1" sheetId="1" r:id="rId1"/>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -9054,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -9442,7 +9442,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -9538,7 +9538,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -9546,7 +9546,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -9577,7 +9577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B100">
         <v>98</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B101">
         <v>99</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B102">
         <v>100</v>
@@ -10405,7 +10405,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103">
         <v>101</v>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104">
         <v>102</v>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="B105">
         <v>103</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B106">
         <v>104</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B107">
         <v>105</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="B108">
         <v>106</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B109">
         <v>107</v>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B110">
         <v>108</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B111">
         <v>109</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B112">
         <v>110</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>111</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B114">
         <v>112</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>113</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>114</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>115</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>116</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>117</v>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>118</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>119</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>120</v>
@@ -10565,7 +10565,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>121</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B124">
         <v>122</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="B125">
         <v>123</v>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B126">
         <v>124</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B127">
         <v>125</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B128">
         <v>126</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B129">
         <v>127</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B130">
         <v>128</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B131">
         <v>129</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B132">
         <v>130</v>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B133">
         <v>131</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B134">
         <v>132</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B135">
         <v>133</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="B136">
         <v>134</v>
@@ -24024,7 +24024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
